--- a/deploy/config/work.xlsx
+++ b/deploy/config/work.xlsx
@@ -1,111 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\files\deploy\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947AE75E-00B2-46B8-AEF6-206E09DF1140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Microsoft Excel" lastEdited="7" lowestEdited="7" rupBuild=""/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7810" yWindow="470" windowWidth="28800" windowHeight="15370" xr2:uid="{A3AE3CAC-A363-4649-BD9E-25A8ECB8825F}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$L$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sr id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>파일목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FAB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INFRA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GEMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>no3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>테스트3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classes/com/springapp/mvc/controller/TestController.class
 classes/com/springapp/mvc/controller/TestController.class
 classes/com/springapp/mvc/controller/TestController1.class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classes/webapp/WEB-INF/pages/hello.jsp
@@ -113,7 +75,6 @@
 classes/webapp/WEB-INF/conf/mybatis-config.xml
 classes/com/springapp/mvc/service/impl/UserService.class
 classes/com/springapp/mvc/service/IUserService.class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>classes/com/springapp/mvc/model/User.class
@@ -123,49 +84,719 @@
 classes/webapp/WEB-INF/web.xml
 classes/rebel.xml
 classes/webapp/WEB-INF/pages/hello.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>반영일</t>
+  </si>
+  <si>
+    <t>시스템</t>
+  </si>
+  <si>
+    <t>DB 반영</t>
+  </si>
+  <si>
+    <t>config 반영</t>
+  </si>
+  <si>
+    <t>개발공수(M/D)</t>
+  </si>
+  <si>
+    <t>SR리스트NO</t>
+  </si>
+  <si>
+    <t>모듈</t>
+  </si>
+  <si>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>소스</t>
+  </si>
+  <si>
+    <t>요청자</t>
+  </si>
+  <si>
+    <t>FAB-GEMS</t>
+  </si>
+  <si>
+    <t>INFRA-GEMS</t>
+  </si>
+  <si>
+    <t>BATCH</t>
+  </si>
+  <si>
+    <t>SPMS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>MECSDEMS-1331</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HOTFIX</t>
+  </si>
+  <si>
+    <t>MECMIEMS-99</t>
+  </si>
+  <si>
+    <t>정비</t>
+  </si>
+  <si>
+    <t>부품센터</t>
+  </si>
+  <si>
+    <t>Recycle</t>
+  </si>
+  <si>
+    <t>인사정보</t>
+  </si>
+  <si>
+    <t>보고서</t>
+  </si>
+  <si>
+    <t>작업계획</t>
+  </si>
+  <si>
+    <t>JIG SUB KPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">불용매각공시
+</t>
+  </si>
+  <si>
+    <t>불용매각공시
+부적합 보고</t>
+  </si>
+  <si>
+    <t>작업의뢰(Infra)</t>
+  </si>
+  <si>
+    <t>배터리 현황</t>
+  </si>
+  <si>
+    <t>추가 요청</t>
+  </si>
+  <si>
+    <t>오류 수정</t>
+  </si>
+  <si>
+    <t>불용매각 공시</t>
+  </si>
+  <si>
+    <t>개선 및 오류 수정</t>
+  </si>
+  <si>
+    <t>개선</t>
+  </si>
+  <si>
+    <t>홍길동</t>
+  </si>
+  <si>
+    <t>임꺽정</t>
+  </si>
+  <si>
+    <t>김수로</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="20">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -180,19 +811,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -512,139 +1181,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427DFCBF-8202-4778-8AB7-34F35AE0D292}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="2" max="2" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="78.08203125" customWidth="1"/>
+    <col min="2" max="2" width="11.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="6" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="9.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="9" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="78.12999725" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:12">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="2" spans="1:12">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>45658</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45658</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="C3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="0">
+        <v>7</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="4" spans="1:12" ht="66.000000">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>45982</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="0">
+        <v>3</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L4" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="1:12" ht="82.500000">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>45982</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="L5" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="119" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:12" ht="115.500000">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>45982</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="0">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{427DFCBF-8202-4778-8AB7-34F35AE0D292}"/>
+  <autoFilter ref="A1:L1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978BA39A-337D-46A1-88B3-FDA5EA5497A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/deploy/config/work.xlsx
+++ b/deploy/config/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\files\deploy\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5981A1B1-1834-400D-A0E0-1DC20DBA0BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2E6D1-DAF4-4D4C-A1EF-444D79125364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="4340" windowWidth="25700" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="7700" windowWidth="30050" windowHeight="13360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -75,77 +75,22 @@
     <t>요청자</t>
   </si>
   <si>
-    <t>FAB-GEMS</t>
-  </si>
-  <si>
-    <t>INFRA-GEMS</t>
-  </si>
-  <si>
-    <t>BATCH</t>
-  </si>
-  <si>
-    <t>SPMS</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>MECSDEMS-1331</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>HOTFIX</t>
   </si>
   <si>
-    <t>MECMIEMS-99</t>
-  </si>
-  <si>
-    <t>정비</t>
-  </si>
-  <si>
-    <t>부품센터</t>
-  </si>
-  <si>
-    <t>Recycle</t>
-  </si>
-  <si>
-    <t>인사정보</t>
-  </si>
-  <si>
-    <t>보고서</t>
-  </si>
-  <si>
-    <t>작업계획</t>
-  </si>
-  <si>
-    <t>JIG SUB KPI</t>
-  </si>
-  <si>
-    <t>불용매각공시
-부적합 보고</t>
-  </si>
-  <si>
-    <t>작업의뢰(Infra)</t>
-  </si>
-  <si>
-    <t>배터리 현황</t>
-  </si>
-  <si>
     <t>추가 요청</t>
   </si>
   <si>
     <t>오류 수정</t>
-  </si>
-  <si>
-    <t>불용매각 공시</t>
-  </si>
-  <si>
-    <t>개선 및 오류 수정</t>
   </si>
   <si>
     <t>개선</t>
@@ -176,6 +121,78 @@
 classes/rebel.xml
 classes/webapp/WEB-INF/pages/hello.jsp
 sql/a/b/1.sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-1331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR-99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모듈6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선 및 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B-SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -604,16 +624,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="4" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" customWidth="1"/>
+    <col min="10" max="10" width="25.4140625" customWidth="1"/>
     <col min="11" max="11" width="78.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,29 +687,29 @@
       <c r="B2" s="1">
         <v>45658</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
@@ -697,29 +722,29 @@
       <c r="B3" s="1">
         <v>45658</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -732,35 +757,35 @@
       <c r="B4" s="1">
         <v>45982</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="C4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="85" x14ac:dyDescent="0.45">
@@ -770,35 +795,35 @@
       <c r="B5" s="1">
         <v>45982</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="153" x14ac:dyDescent="0.45">
@@ -808,35 +833,35 @@
       <c r="B6" s="1">
         <v>45982</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="s">
         <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
